--- a/anextour parser/results/asmbl/qds2_res_assmbl.xlsx
+++ b/anextour parser/results/asmbl/qds2_res_assmbl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\anextour parser\results\asmbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A829C749-F7C5-43A6-9669-89F860C42F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7C0EB9-8A67-4255-AFFD-72C34C790F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="30660" windowHeight="19590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="2010" windowWidth="30660" windowHeight="19590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>[2, 3, 4, 5, 6, 7, 8, 23, 24, 25, 26, 27, 28, 125, 126, 201]</t>
   </si>
   <si>
-    <t>[np.int64(117), np.int64(0), np.int64(33), np.int64(125), np.int64(126)]</t>
+    <t>[np.int64(117), np.int64(33), np.int64(126), np.int64(43), np.int64(0)]</t>
   </si>
   <si>
     <t>1</t>
@@ -79,7 +79,7 @@
     <t>[100, 101, 102, 103, 104, 105, 106, 107]</t>
   </si>
   <si>
-    <t>[np.int64(117), np.int64(109), np.int64(107), np.int64(101), np.int64(103)]</t>
+    <t>[np.int64(117), np.int64(110), np.int64(109), np.int64(107), np.int64(101)]</t>
   </si>
   <si>
     <t>2</t>
@@ -91,7 +91,7 @@
     <t>[9, 44, 58, 156, 201]</t>
   </si>
   <si>
-    <t>[np.int64(9), np.int64(6), np.int64(126), np.int64(108), np.int64(113)]</t>
+    <t>[np.int64(9), np.int64(6), np.int64(126), np.int64(113), np.int64(42)]</t>
   </si>
   <si>
     <t>3</t>
@@ -103,7 +103,7 @@
     <t>[46, 118, 119, 182, 183, 184, 196, 212, 213, 214]</t>
   </si>
   <si>
-    <t>[np.int64(46), np.int64(196), np.int64(0), np.int64(119), np.int64(126)]</t>
+    <t>[np.int64(46), np.int64(0), np.int64(126), np.int64(118), np.int64(174)]</t>
   </si>
   <si>
     <t>4</t>
@@ -115,7 +115,7 @@
     <t>[0, 1]</t>
   </si>
   <si>
-    <t>[np.int64(152), np.int64(0), np.int64(43), np.int64(0), np.int64(0)]</t>
+    <t>[np.int64(152), np.int64(43), np.int64(10), np.int64(0), np.int64(0)]</t>
   </si>
   <si>
     <t>5</t>
@@ -127,7 +127,7 @@
     <t>[9, 156]</t>
   </si>
   <si>
-    <t>[np.int64(9), np.int64(43), np.int64(156), np.int64(199), np.int64(47)]</t>
+    <t>[np.int64(43), np.int64(199), np.int64(174), np.int64(41), np.int64(166)]</t>
   </si>
   <si>
     <t>6</t>
@@ -139,7 +139,7 @@
     <t>[172, 173, 174, 176, 189]</t>
   </si>
   <si>
-    <t>[np.int64(176), np.int64(43), np.int64(189), np.int64(174), np.int64(174)]</t>
+    <t>[np.int64(43), np.int64(174), np.int64(99), np.int64(185), np.int64(170)]</t>
   </si>
   <si>
     <t>7</t>
@@ -151,7 +151,7 @@
     <t>[198, 199, 200]</t>
   </si>
   <si>
-    <t>[np.int64(200), np.int64(43), np.int64(199), np.int64(42), np.int64(218)]</t>
+    <t>[np.int64(43), np.int64(42), np.int64(58), np.int64(174), np.int64(148)]</t>
   </si>
   <si>
     <t>8</t>
@@ -163,7 +163,7 @@
     <t>[168, 169, 170, 171, 225, 224]</t>
   </si>
   <si>
-    <t>[np.int64(199), np.int64(6), np.int64(198), np.int64(126), np.int64(225)]</t>
+    <t>[np.int64(6), np.int64(126), np.int64(43), np.int64(174), np.int64(194)]</t>
   </si>
   <si>
     <t>9</t>
@@ -175,7 +175,7 @@
     <t>[171, 225, 224]</t>
   </si>
   <si>
-    <t>[np.int64(184), np.int64(41), np.int64(171), np.int64(182), np.int64(224)]</t>
+    <t>[np.int64(41), np.int64(182), np.int64(213), np.int64(108), np.int64(224)]</t>
   </si>
   <si>
     <t>10</t>
@@ -187,7 +187,7 @@
     <t>[160, 161, 162]</t>
   </si>
   <si>
-    <t>[np.int64(160), np.int64(180), np.int64(134), np.int64(82), np.int64(174)]</t>
+    <t>[np.int64(160), np.int64(134), np.int64(174), np.int64(180), np.int64(82)]</t>
   </si>
   <si>
     <t>11</t>
@@ -211,7 +211,7 @@
     <t>[108, 109, 110, 111, 112, 114, 115, 116, 117, 197]</t>
   </si>
   <si>
-    <t>[np.int64(110), np.int64(33), np.int64(149), np.int64(142), np.int64(116)]</t>
+    <t>[np.int64(110), np.int64(33), np.int64(149), np.int64(142), np.int64(174)]</t>
   </si>
   <si>
     <t>13</t>
@@ -223,7 +223,7 @@
     <t>[108, 109, 114]</t>
   </si>
   <si>
-    <t>[np.int64(109), np.int64(43), np.int64(107), np.int64(174), np.int64(111)]</t>
+    <t>[np.int64(43), np.int64(174), np.int64(126), np.int64(142), np.int64(15)]</t>
   </si>
   <si>
     <t>14</t>
@@ -235,7 +235,7 @@
     <t>[45, 47, 48, 59, 89, 90, 123, 147, 148, 149, 150, 151, 190]</t>
   </si>
   <si>
-    <t>[np.int64(123), np.int64(57), np.int64(90), np.int64(43), np.int64(45)]</t>
+    <t>[np.int64(57), np.int64(43), np.int64(59), np.int64(9), np.int64(156)]</t>
   </si>
   <si>
     <t>15</t>
@@ -247,7 +247,7 @@
     <t>[60, 61, 86, 127, 164, 177, 202, 210, 219, 220, 221, 222]</t>
   </si>
   <si>
-    <t>[np.int64(30), np.int64(60), np.int64(43), np.int64(60), np.int64(170)]</t>
+    <t>[np.int64(30), np.int64(43), np.int64(170), np.int64(223), np.int64(56)]</t>
   </si>
   <si>
     <t>16</t>
@@ -259,7 +259,7 @@
     <t>[36, 41, 42, 43, 49, 50, 51, 56, 57, 67, 68, 69, 113, 120, 121, 122, 124, 137, 138, 139, 142, 175, 185, 191, 195, 223]</t>
   </si>
   <si>
-    <t>[np.int64(224), np.int64(49), np.int64(120), np.int64(50), np.int64(170)]</t>
+    <t>[np.int64(224), np.int64(170), np.int64(157), np.int64(104), np.int64(49)]</t>
   </si>
   <si>
     <t>17</t>
@@ -271,7 +271,7 @@
     <t>[66, 72, 83, 86, 87, 135, 136, 145]</t>
   </si>
   <si>
-    <t>[np.int64(21), np.int64(72), np.int64(145), np.int64(12), np.int64(60)]</t>
+    <t>[np.int64(21), np.int64(72), np.int64(145), np.int64(60), np.int64(16)]</t>
   </si>
   <si>
     <t>18</t>
@@ -283,7 +283,7 @@
     <t>[62, 64, 65, 144, 163, 165, 179, 186, 187]</t>
   </si>
   <si>
-    <t>[np.int64(64), np.int64(62), np.int64(43), np.int64(106), np.int64(61)]</t>
+    <t>[np.int64(64), np.int64(43), np.int64(106), np.int64(61), np.int64(107)]</t>
   </si>
   <si>
     <t>19</t>
@@ -295,7 +295,7 @@
     <t>[65, 66, 72, 88, 133]</t>
   </si>
   <si>
-    <t>[np.int64(87), np.int64(82), np.int64(134), np.int64(65), np.int64(174)]</t>
+    <t>[np.int64(87), np.int64(82), np.int64(134), np.int64(174), np.int64(166)]</t>
   </si>
   <si>
     <t>20</t>
@@ -307,7 +307,7 @@
     <t>[16, 17, 18, 19, 20]</t>
   </si>
   <si>
-    <t>[np.int64(18), np.int64(17), np.int64(17), np.int64(16), np.int64(20)]</t>
+    <t>[np.int64(18), np.int64(17), np.int64(134), np.int64(19), np.int64(17)]</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="E23" sqref="E23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>0.33333333333333331</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>0.5</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -808,19 +808,19 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H5">
-        <v>0.75</v>
-      </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,10 +837,10 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0.33333333333333331</v>
@@ -849,7 +849,7 @@
         <v>0.5</v>
       </c>
       <c r="I6">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,19 +866,19 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -895,19 +895,19 @@
         <v>36</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H8">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -924,19 +924,19 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>52</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -1040,7 +1040,7 @@
         <v>56</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0.5</v>
@@ -1069,7 +1069,7 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -1081,7 +1081,7 @@
         <v>0.25</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1098,19 +1098,19 @@
         <v>64</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1127,19 +1127,19 @@
         <v>68</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1156,19 +1156,19 @@
         <v>72</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1185,19 +1185,19 @@
         <v>76</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H18">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I18">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>80</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -1243,19 +1243,19 @@
         <v>84</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1310,32 +1310,32 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23">
         <f>AVERAGE(E2:E22)</f>
-        <v>0.66666666666666663</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F23">
         <f t="shared" ref="F23:I23" si="0">AVERAGE(F2:F22)</f>
-        <v>0.40476190476190477</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.48412698412698407</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.45634920634920628</v>
+        <v>0.24206349206349209</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.44761904761904764</v>
+        <v>0.21904761904761907</v>
       </c>
     </row>
   </sheetData>
